--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/fr/ExportNutrients.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/fr/ExportNutrients.xlsx
@@ -15,10 +15,10 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">INCO!$A$3:$AL$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Nutriments!$B$3:$J$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Nutriments!$B$3:$M$3</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Produit!$B$3:$H$3</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">US!$A$3:$BA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Nutriments!$B$3:$M$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Nutriments!$B$3:$J$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Nutriments!$B$3:$T$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Nutriments!$B$3:$T$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Nutriments!$B$3:$T$3</definedName>
@@ -226,10 +226,10 @@
     <t xml:space="preserve">excel|IF(AE2="",IF(AD2="","",AD2),AE2)</t>
   </si>
   <si>
-    <t xml:space="preserve">bcpg:nutList[bcpg:nutListNut#gs1:nutrientTypeCode== "Sucre"]_bcpg:nutListFormulatedValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bcpg:nutList[bcpg:nutListNut#gs1:nutrientTypeCode== "Sucre"]_bcpg:nutListValue</t>
+    <t xml:space="preserve">bcpg:nutList[bcpg:nutListNut#gs1:nutrientTypeCode== "SUGAR"]_bcpg:nutListFormulatedValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:nutList[bcpg:nutListNut#gs1:nutrientTypeCode== "SUGAR"]_bcpg:nutListValue</t>
   </si>
   <si>
     <t xml:space="preserve">bcpg:nutList[bcpg:nutListNut#gs1:nutrientTypeCode== "SUGAD"]_bcpg:nutListFormulatedValue</t>
@@ -499,7 +499,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -540,6 +540,12 @@
       <color rgb="FFFFFFFF"/>
       <name val="arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="aakar"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -603,7 +609,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -662,6 +668,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -759,11 +769,11 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.98"/>
@@ -855,11 +865,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
@@ -1034,7 +1044,7 @@
       <c r="AMJ3" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:J3"/>
+  <autoFilter ref="B3:M3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1051,62 +1061,61 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BO3"/>
+  <dimension ref="A1:BO7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ12" activeCellId="0" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="38.9"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="15" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="18" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="21" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="24" min="24" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="25" min="25" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="27" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="30" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="34" min="34" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="30" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="36" min="36" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="37" min="37" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="40" min="39" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="39" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="43" min="42" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="42" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="46" min="45" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="49" min="48" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="52" min="51" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="0" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="13.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="54" style="0" width="6.21"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1169,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
@@ -1496,6 +1505,9 @@
         <v>127</v>
       </c>
       <c r="BB3" s="14"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:BA3"/>
@@ -1517,13 +1529,13 @@
   </sheetPr>
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.06"/>
@@ -1531,37 +1543,37 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="38.9"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="16" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="18" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="21" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="24" min="24" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="25" min="25" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="27" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="30" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="34" min="34" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="36" min="36" style="0" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="37" min="37" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="13.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="911" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +1611,7 @@
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>

--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/fr/ExportNutrients.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/fr/ExportNutrients.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Produit" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,15 +15,14 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">INCO!$A$3:$AL$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Nutriments!$B$3:$M$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Nutriments!$B$3:$L$3</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Produit!$B$3:$H$3</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">US!$A$3:$BA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Nutriments!$B$3:$J$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Nutriments!$B$3:$T$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Nutriments!$B$3:$T$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Nutriments!$B$3:$T$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Nutriments!$B$3:$T$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Nutriments!$B$3:$T$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Nutriments!$B$3:$W$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Nutriments!$B$3:$W$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Nutriments!$B$3:$W$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Nutriments!$B$3:$W$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Nutriments!$B$3:$W$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="146">
   <si>
     <t xml:space="preserve">TYPE</t>
   </si>
@@ -109,9 +108,15 @@
     <t xml:space="preserve">bcpg:nutListValue</t>
   </si>
   <si>
+    <t xml:space="preserve">bcpg:nutListRoundedValue</t>
+  </si>
+  <si>
     <t xml:space="preserve">bcpg:nutListFormulatedValue</t>
   </si>
   <si>
+    <t xml:space="preserve">formula|T(fr.becpg.repo.product.formulation.nutrient.RegulationFormulationHelper).extractValue(props["prop_bcpg_nutListRoundedValue"],"EU")</t>
+  </si>
+  <si>
     <t xml:space="preserve">bcpg:nutListMini</t>
   </si>
   <si>
@@ -121,7 +126,10 @@
     <t xml:space="preserve">bcpg:nutListValuePerServing</t>
   </si>
   <si>
-    <t xml:space="preserve">bcpg:nutListGDAPerc</t>
+    <t xml:space="preserve">formula|T(fr.becpg.repo.product.formulation.nutrient.RegulationFormulationHelper).extractValuePerServing(props["prop_bcpg_nutListRoundedValue"],"EU")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formula|T(fr.becpg.repo.product.formulation.nutrient.RegulationFormulationHelper).extractGDAPerc(props["prop_bcpg_nutListRoundedValue"],"EU")</t>
   </si>
   <si>
     <t xml:space="preserve">bcpg:nutListLossPerc</t>
@@ -139,6 +147,9 @@
     <t xml:space="preserve">Valeur calculée</t>
   </si>
   <si>
+    <t xml:space="preserve">Valeur étiquetée EU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Min</t>
   </si>
   <si>
@@ -148,7 +159,10 @@
     <t xml:space="preserve">1 portion</t>
   </si>
   <si>
-    <t xml:space="preserve">% AJR pour une portion</t>
+    <t xml:space="preserve">1 portion étiquetée EU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% AJR pour une portion EU</t>
   </si>
   <si>
     <t xml:space="preserve">% Perte</t>
@@ -499,7 +513,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -532,6 +546,14 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Monospace"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -609,7 +631,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -638,15 +660,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -670,7 +696,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -683,13 +709,36 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF004254"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF2A00FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
@@ -769,11 +818,11 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.98"/>
@@ -848,10 +897,10 @@
   <autoFilter ref="B3:H3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -865,22 +914,24 @@
   </sheetPr>
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="14" style="0" width="6.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="17" style="0" width="6.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -892,8 +943,7 @@
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="H1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -904,8 +954,11 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="7.45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
@@ -927,13 +980,13 @@
       <c r="G2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="6" t="s">
@@ -945,9 +998,15 @@
       <c r="M2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="N2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
@@ -965,57 +1024,64 @@
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
       <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
     </row>
-    <row r="3" s="11" customFormat="true" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="12" customFormat="true" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="K3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="L3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
-      <c r="ALH3" s="0"/>
-      <c r="ALI3" s="0"/>
-      <c r="ALJ3" s="0"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
       <c r="ALK3" s="0"/>
       <c r="ALL3" s="0"/>
       <c r="ALM3" s="0"/>
@@ -1044,10 +1110,10 @@
       <c r="AMJ3" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:M3"/>
+  <autoFilter ref="B3:L3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1063,11 +1129,11 @@
   </sheetPr>
   <dimension ref="A1:BO7"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ12" activeCellId="0" sqref="AJ12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.68"/>
@@ -1195,139 +1261,139 @@
         <v>9</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="AJ2" s="6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AU2" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AX2" s="6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AY2" s="6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="BA2" s="6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BB2" s="6"/>
       <c r="BC2" s="6"/>
@@ -1344,179 +1410,179 @@
       <c r="BN2" s="6"/>
       <c r="BO2" s="6"/>
     </row>
-    <row r="3" s="12" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="13" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="N3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="K3" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="L3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="M3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="N3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="O3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="P3" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="Q3" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="R3" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="S3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="T3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="U3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="V3" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="W3" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="X3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="Y3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="Z3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AA3" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AG3" s="10" t="s">
+      <c r="AB3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AC3" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AI3" s="10" t="s">
+      <c r="AD3" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="AJ3" s="10" t="s">
+      <c r="AE3" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AK3" s="10" t="s">
+      <c r="AF3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AL3" s="10" t="s">
+      <c r="AG3" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="AM3" s="10" t="s">
+      <c r="AH3" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AN3" s="10" t="s">
+      <c r="AI3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AO3" s="10" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AP3" s="10" t="s">
+      <c r="AK3" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="AQ3" s="10" t="s">
+      <c r="AL3" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AR3" s="10" t="s">
+      <c r="AM3" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="AS3" s="10" t="s">
+      <c r="AN3" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="AT3" s="10" t="s">
+      <c r="AO3" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AU3" s="10" t="s">
+      <c r="AP3" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AV3" s="10" t="s">
+      <c r="AQ3" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="AW3" s="10" t="s">
+      <c r="AR3" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="AX3" s="10" t="s">
+      <c r="AS3" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="AY3" s="10" t="s">
+      <c r="AT3" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="AZ3" s="10" t="s">
+      <c r="AU3" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="BA3" s="10" t="s">
+      <c r="AV3" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="BB3" s="14"/>
+      <c r="AW3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY3" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ3" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA3" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="BB3" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="15"/>
+      <c r="D7" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:BA3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1529,11 +1595,11 @@
   </sheetPr>
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.37"/>
@@ -1637,220 +1703,220 @@
         <v>9</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AD2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="AI2" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="13" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="S3" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="T3" s="10" t="s">
+      <c r="K3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="U3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="V3" s="10" t="s">
+      <c r="P3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="T3" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="W3" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z3" s="10" t="s">
+      <c r="U3" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD3" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="AA3" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB3" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC3" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AE3" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AI3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AF3" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG3" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH3" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI3" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ3" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK3" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL3" s="10" t="s">
-        <v>140</v>
+      <c r="AJ3" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL3" s="11" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:AL3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/fr/ExportNutrients.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/fr/ExportNutrients.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Produit" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="150">
   <si>
     <t xml:space="preserve">TYPE</t>
   </si>
@@ -66,6 +66,12 @@
     <t xml:space="preserve">bcpg:legalName</t>
   </si>
   <si>
+    <t xml:space="preserve">bcpg:nutrientProfilingScore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:nutrientProfilingClass</t>
+  </si>
+  <si>
     <t xml:space="preserve">#</t>
   </si>
   <si>
@@ -88,6 +94,12 @@
   </si>
   <si>
     <t xml:space="preserve">Libellé légal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score nutritionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Echelle nutritionnelle</t>
   </si>
   <si>
     <t xml:space="preserve">bcpg:nutList</t>
@@ -816,13 +828,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.98"/>
@@ -831,9 +843,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="38.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="25.55"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
@@ -865,32 +878,44 @@
       </c>
       <c r="H2" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -899,8 +924,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -914,18 +939,19 @@
   </sheetPr>
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.11"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="9.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.36"/>
@@ -934,12 +960,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="17" style="0" width="6.21"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -958,7 +984,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="7.45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
@@ -966,46 +992,46 @@
         <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
@@ -1030,50 +1056,50 @@
     </row>
     <row r="3" s="12" customFormat="true" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
@@ -1129,11 +1155,11 @@
   </sheetPr>
   <dimension ref="A1:BO7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.68"/>
@@ -1261,139 +1287,139 @@
         <v>9</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AD2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AE2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="AJ2" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AU2" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AX2" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AY2" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="BA2" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="BB2" s="6"/>
       <c r="BC2" s="6"/>
@@ -1412,163 +1438,163 @@
     </row>
     <row r="3" s="13" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AC3" s="11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AD3" s="11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AE3" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AF3" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AG3" s="11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AH3" s="11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AI3" s="11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AJ3" s="11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AK3" s="11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AL3" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AM3" s="11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AN3" s="11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AO3" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AP3" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AQ3" s="11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AR3" s="11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AS3" s="11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AT3" s="11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AU3" s="11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AV3" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AW3" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AX3" s="11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AY3" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AZ3" s="11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="BA3" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="BB3" s="15"/>
     </row>
@@ -1581,8 +1607,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1595,11 +1621,11 @@
   </sheetPr>
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.37"/>
@@ -1703,210 +1729,210 @@
         <v>9</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Y2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="Z2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="AE2" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" s="13" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Y3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD3" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="AE3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AA3" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC3" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AF3" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI3" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="AE3" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF3" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG3" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH3" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI3" s="11" t="s">
-        <v>105</v>
-      </c>
       <c r="AJ3" s="11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AK3" s="11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AL3" s="11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1915,8 +1941,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/fr/ExportNutrients.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/fr/ExportNutrients.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Produit" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,14 +15,17 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">INCO!$A$3:$AL$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Nutriments!$B$3:$L$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Produit!$B$3:$H$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Nutriments!$B$3:$R$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Produit!$I$3:$P$3</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">US!$A$3:$BA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Nutriments!$B$3:$W$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Nutriments!$B$3:$W$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Nutriments!$B$3:$W$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Nutriments!$B$3:$W$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Nutriments!$B$3:$W$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Produit!$B$3:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Nutriments!$B$3:$M$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Nutriments!$R$3:$T$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Nutriments!$B$3:$Y$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Nutriments!$B$3:$Y$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Nutriments!$B$3:$Y$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Nutriments!$B$3:$Y$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Nutriments!$B$3:$Y$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="171">
   <si>
     <t xml:space="preserve">TYPE</t>
   </si>
@@ -66,10 +69,28 @@
     <t xml:space="preserve">bcpg:legalName</t>
   </si>
   <si>
-    <t xml:space="preserve">bcpg:nutrientProfilingScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bcpg:nutrientProfilingClass</t>
+    <t xml:space="preserve">bcpg:servingSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:servingSizeUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:servingSizeText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:numberOfServings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:nutrientPreparationState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:nutrientPreparedUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:nutrientProfileCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:nutrientProfileVersion</t>
   </si>
   <si>
     <t xml:space="preserve">#</t>
@@ -96,10 +117,28 @@
     <t xml:space="preserve">Libellé légal</t>
   </si>
   <si>
-    <t xml:space="preserve">Score nutritionnel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echelle nutritionnelle</t>
+    <t xml:space="preserve">Taille d'une portion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unité de la portion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texte de la portion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de portions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type de valeur nutritionnelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unité de mesure préparé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profil nutritionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version du profil nutritionnel</t>
   </si>
   <si>
     <t xml:space="preserve">bcpg:nutList</t>
@@ -120,33 +159,45 @@
     <t xml:space="preserve">bcpg:nutListValue</t>
   </si>
   <si>
-    <t xml:space="preserve">bcpg:nutListRoundedValue</t>
-  </si>
-  <si>
     <t xml:space="preserve">bcpg:nutListFormulatedValue</t>
   </si>
   <si>
-    <t xml:space="preserve">formula|T(fr.becpg.repo.product.formulation.nutrient.RegulationFormulationHelper).extractValue(props["prop_bcpg_nutListRoundedValue"],"EU")</t>
+    <t xml:space="preserve">bcpg:nutListValuePrepared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:nutListFormulatedValuePrepared</t>
   </si>
   <si>
     <t xml:space="preserve">bcpg:nutListMini</t>
   </si>
   <si>
+    <t xml:space="preserve">bcpg:nutListFormulatedMini</t>
+  </si>
+  <si>
     <t xml:space="preserve">bcpg:nutListMaxi</t>
   </si>
   <si>
+    <t xml:space="preserve">bcpg:nutListFormulatedMaxi</t>
+  </si>
+  <si>
     <t xml:space="preserve">bcpg:nutListValuePerServing</t>
   </si>
   <si>
-    <t xml:space="preserve">formula|T(fr.becpg.repo.product.formulation.nutrient.RegulationFormulationHelper).extractValuePerServing(props["prop_bcpg_nutListRoundedValue"],"EU")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formula|T(fr.becpg.repo.product.formulation.nutrient.RegulationFormulationHelper).extractGDAPerc(props["prop_bcpg_nutListRoundedValue"],"EU")</t>
+    <t xml:space="preserve">bcpg:nutListFormulatedValuePerServing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:nutListGDAPerc</t>
   </si>
   <si>
     <t xml:space="preserve">bcpg:nutListLossPerc</t>
   </si>
   <si>
+    <t xml:space="preserve">bcpg:nutListMethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:nutListMeasurementPrecision</t>
+  </si>
+  <si>
     <t xml:space="preserve">Variantes</t>
   </si>
   <si>
@@ -159,27 +210,42 @@
     <t xml:space="preserve">Valeur calculée</t>
   </si>
   <si>
-    <t xml:space="preserve">Valeur étiquetée EU</t>
+    <t xml:space="preserve">Valeur préparée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeur préparée calculée</t>
   </si>
   <si>
     <t xml:space="preserve">Min</t>
   </si>
   <si>
+    <t xml:space="preserve">Min formulé</t>
+  </si>
+  <si>
     <t xml:space="preserve">Max</t>
   </si>
   <si>
+    <t xml:space="preserve">Max formulé</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 portion</t>
   </si>
   <si>
-    <t xml:space="preserve">1 portion étiquetée EU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% AJR pour une portion EU</t>
+    <t xml:space="preserve">Valeur calculée pour une portion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% AJR pour une portion</t>
   </si>
   <si>
     <t xml:space="preserve">% Perte</t>
   </si>
   <si>
+    <t xml:space="preserve">Méthode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Précision de la mesure</t>
+  </si>
+  <si>
     <t xml:space="preserve">bcpg:nutList[bcpg:nutListNut#gs1:nutrientTypeCode== "ENER-E14"]_bcpg:nutListFormulatedValue</t>
   </si>
   <si>
@@ -252,10 +318,10 @@
     <t xml:space="preserve">excel|IF(AE2="",IF(AD2="","",AD2),AE2)</t>
   </si>
   <si>
-    <t xml:space="preserve">bcpg:nutList[bcpg:nutListNut#gs1:nutrientTypeCode== "SUGAR"]_bcpg:nutListFormulatedValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bcpg:nutList[bcpg:nutListNut#gs1:nutrientTypeCode== "SUGAR"]_bcpg:nutListValue</t>
+    <t xml:space="preserve">bcpg:nutList[bcpg:nutListNut#gs1:nutrientTypeCode== "Sucre"]_bcpg:nutListFormulatedValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:nutList[bcpg:nutListNut#gs1:nutrientTypeCode== "Sucre"]_bcpg:nutListValue</t>
   </si>
   <si>
     <t xml:space="preserve">bcpg:nutList[bcpg:nutListNut#gs1:nutrientTypeCode== "SUGAD"]_bcpg:nutListFormulatedValue</t>
@@ -525,7 +591,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -561,25 +627,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Monospace"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="aakar"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -643,7 +695,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -672,19 +724,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -708,10 +756,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,36 +765,13 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF004254"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF2A00FF"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
@@ -828,13 +849,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.98"/>
@@ -843,10 +864,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="38.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="25.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="28.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="24.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="32.27"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
@@ -884,45 +912,81 @@
       </c>
       <c r="J2" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:H3"/>
+  <autoFilter ref="I3:P3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -939,37 +1003,35 @@
   </sheetPr>
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.11"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="17" style="0" width="6.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="21" style="0" width="6.21"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -983,8 +1045,10 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
@@ -992,51 +1056,59 @@
         <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
@@ -1053,63 +1125,75 @@
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
     </row>
-    <row r="3" s="12" customFormat="true" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
+    <row r="3" s="11" customFormat="true" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
-      <c r="ALK3" s="0"/>
-      <c r="ALL3" s="0"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
       <c r="ALM3" s="0"/>
       <c r="ALN3" s="0"/>
       <c r="ALO3" s="0"/>
@@ -1136,10 +1220,10 @@
       <c r="AMJ3" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:L3"/>
+  <autoFilter ref="B3:R3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1153,15 +1237,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BO7"/>
+  <dimension ref="A1:BO3"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.37"/>
@@ -1169,45 +1253,46 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="38.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="15" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="18" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="21" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="24" min="24" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="25" min="25" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="27" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="30" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="30" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="34" min="34" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="36" min="36" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="37" min="37" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="39" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="40" min="39" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="42" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="43" min="42" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="46" min="45" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="49" min="48" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="52" min="51" style="0" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="13.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="54" style="0" width="6.21"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1261,7 +1346,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
@@ -1287,139 +1372,139 @@
         <v>9</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="AU2" s="6" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="AX2" s="6" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="AY2" s="6" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="BA2" s="6" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="BB2" s="6"/>
       <c r="BC2" s="6"/>
@@ -1436,176 +1521,173 @@
       <c r="BN2" s="6"/>
       <c r="BO2" s="6"/>
     </row>
-    <row r="3" s="13" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="14" t="s">
+    <row r="3" s="12" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC3" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD3" s="11" t="s">
+      <c r="C3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="AI3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="AK3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="AL3" s="11" t="s">
+      <c r="Q3" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="AM3" s="11" t="s">
+      <c r="R3" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="AN3" s="11" t="s">
+      <c r="S3" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="AO3" s="11" t="s">
+      <c r="T3" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AP3" s="11" t="s">
+      <c r="U3" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AQ3" s="11" t="s">
+      <c r="V3" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="AR3" s="11" t="s">
+      <c r="W3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AS3" s="11" t="s">
+      <c r="X3" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="AT3" s="11" t="s">
+      <c r="Y3" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="AU3" s="11" t="s">
+      <c r="Z3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AV3" s="11" t="s">
+      <c r="AA3" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="AW3" s="11" t="s">
+      <c r="AB3" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AX3" s="11" t="s">
+      <c r="AC3" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="AY3" s="11" t="s">
+      <c r="AD3" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="AZ3" s="11" t="s">
+      <c r="AE3" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="BA3" s="11" t="s">
+      <c r="AF3" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="BB3" s="15"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="16"/>
+      <c r="AG3" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI3" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL3" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM3" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN3" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO3" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ3" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR3" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS3" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT3" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU3" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV3" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW3" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="AX3" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AY3" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ3" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA3" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="BB3" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:BA3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1621,13 +1703,13 @@
   </sheetPr>
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.06"/>
@@ -1635,37 +1717,37 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="38.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="16" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="18" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="21" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="24" min="24" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="25" min="25" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="27" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="30" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="34" min="34" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="36" min="36" style="0" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="37" min="37" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="13.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="911" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +1785,7 @@
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
@@ -1729,217 +1811,217 @@
         <v>9</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" s="12" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="X3" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="Y3" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC2" s="6" t="s">
+      <c r="Z3" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AD2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" s="13" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L3" s="11" t="s">
+      <c r="AA3" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="AB3" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="AC3" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC3" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD3" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE3" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF3" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH3" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI3" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ3" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK3" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL3" s="11" t="s">
-        <v>149</v>
+      <c r="AD3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL3" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:AL3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
